--- a/helloworld.xlsx
+++ b/helloworld.xlsx
@@ -15,9 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>First document</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>11101/18</t>
+  </si>
+  <si>
+    <t>Marko Markovic</t>
+  </si>
+  <si>
+    <t>Banja Luka</t>
+  </si>
+  <si>
+    <t>1101/19</t>
+  </si>
+  <si>
+    <t>Nikola Nikolic</t>
+  </si>
+  <si>
+    <t>Doboj</t>
+  </si>
+  <si>
+    <t>1213/17</t>
+  </si>
+  <si>
+    <t>Stefan Stefanovic</t>
+  </si>
+  <si>
+    <t>I.Sarajevo</t>
   </si>
 </sst>
 </file>
@@ -356,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -364,9 +388,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6.24</v>
       </c>
     </row>
   </sheetData>
